--- a/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link2_request400.xlsx
+++ b/instance_generator/instances/instance_C1_lan/fragmentation/fragmentation_link2_request400.xlsx
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.4312</v>
+        <v>19.4312</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -494,7 +494,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0296</v>
+        <v>0.0288</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -505,7 +505,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.0168</v>
+        <v>0.0176</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -516,7 +516,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.0024</v>
+        <v>0.0016</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0024</v>
+        <v>0.0032</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.3488</v>
+        <v>0.3496</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.3512000000000001</v>
+        <v>0.3504</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -626,7 +626,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.6032000000000001</v>
+        <v>0.604</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -648,7 +648,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.3416</v>
+        <v>0.3408</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -659,7 +659,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.1592</v>
+        <v>0.16</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
@@ -670,7 +670,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0704</v>
+        <v>0.06960000000000001</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.4048</v>
+        <v>0.4056</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -725,7 +725,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.404</v>
+        <v>0.4032000000000001</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.427200000000001</v>
+        <v>7.428</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.9176</v>
+        <v>1.916</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
@@ -758,7 +758,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.8336</v>
+        <v>0.8344000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
@@ -780,7 +780,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.7288</v>
+        <v>1.728</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.8368000000000001</v>
+        <v>0.8376</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.4064</v>
+        <v>0.4056</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
@@ -824,7 +824,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.9112</v>
+        <v>0.912</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
@@ -1366,7 +1366,7 @@
         <v>51.6968</v>
       </c>
       <c r="C85" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="86">
@@ -1949,7 +1949,7 @@
         <v>3.924</v>
       </c>
       <c r="C138" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="139">
@@ -1960,7 +1960,7 @@
         <v>0.6919999999999999</v>
       </c>
       <c r="C139" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="140">
@@ -1971,7 +1971,7 @@
         <v>2.192</v>
       </c>
       <c r="C140" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="141">
@@ -1982,7 +1982,7 @@
         <v>0.556</v>
       </c>
       <c r="C141" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="142">
@@ -1993,7 +1993,7 @@
         <v>10.644</v>
       </c>
       <c r="C142" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="143">
@@ -2056,7 +2056,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>0.4168</v>
+        <v>0.4176</v>
       </c>
       <c r="C148" t="n">
         <v>625001</v>
@@ -2067,7 +2067,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>0.04</v>
+        <v>0.03920000000000001</v>
       </c>
       <c r="C149" t="n">
         <v>625001</v>
@@ -2367,7 +2367,7 @@
         <v>13.676</v>
       </c>
       <c r="C176" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="177">
@@ -2716,7 +2716,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>0.8344000000000001</v>
+        <v>0.8352000000000001</v>
       </c>
       <c r="C208" t="n">
         <v>1250001</v>
@@ -2738,7 +2738,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>1.728</v>
+        <v>1.7272</v>
       </c>
       <c r="C210" t="n">
         <v>1250001</v>
@@ -2760,7 +2760,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>0.412</v>
+        <v>0.4128</v>
       </c>
       <c r="C212" t="n">
         <v>1250001</v>
@@ -2771,7 +2771,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>0.4056</v>
+        <v>0.4048</v>
       </c>
       <c r="C213" t="n">
         <v>1250001</v>
@@ -2782,7 +2782,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>0.912</v>
+        <v>0.9128000000000001</v>
       </c>
       <c r="C214" t="n">
         <v>1250001</v>
@@ -2804,7 +2804,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>8.9184</v>
+        <v>8.9176</v>
       </c>
       <c r="C216" t="n">
         <v>1250001</v>
@@ -3016,7 +3016,7 @@
         <v>67.4128</v>
       </c>
       <c r="C235" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="236">
@@ -3907,7 +3907,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C316" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="317">
@@ -4798,7 +4798,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C397" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="398">
@@ -5689,7 +5689,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C478" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="479">
@@ -6580,7 +6580,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C559" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="560">
@@ -7471,7 +7471,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C640" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="641">
@@ -8362,7 +8362,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C721" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="722">
@@ -9253,7 +9253,7 @@
         <v>67.41200000000001</v>
       </c>
       <c r="C802" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="803">
@@ -9382,7 +9382,7 @@
         <v>812</v>
       </c>
       <c r="B814" t="n">
-        <v>14.4264</v>
+        <v>14.4272</v>
       </c>
       <c r="C814" t="n">
         <v>10312501</v>
@@ -9393,7 +9393,7 @@
         <v>813</v>
       </c>
       <c r="B815" t="n">
-        <v>4.4272</v>
+        <v>4.4264</v>
       </c>
       <c r="C815" t="n">
         <v>10312501</v>
@@ -10144,7 +10144,7 @@
         <v>67.41119999999999</v>
       </c>
       <c r="C883" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="884">
@@ -10427,7 +10427,7 @@
         <v>907</v>
       </c>
       <c r="B909" t="n">
-        <v>241.4968</v>
+        <v>225.4968</v>
       </c>
       <c r="C909" t="n">
         <v>12187501</v>
